--- a/enrichments.xlsx
+++ b/enrichments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerrardlawrence/Desktop/docker_tests/ds_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF33E813-E98C-FF42-A7F9-72972AA188C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A23F58-E6BE-F543-8B18-B11CB6BFDB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{751AE5F0-775D-D249-A871-9246D628F695}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Enrichment</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Text Extraction</t>
   </si>
   <si>
-    <t>application/pdf, audio/, image/</t>
-  </si>
-  <si>
     <t>Example MIME Content-Type(s)</t>
   </si>
   <si>
@@ -57,15 +54,9 @@
     <t>image/</t>
   </si>
   <si>
-    <t>application/pdf, audio/, image/, video/</t>
-  </si>
-  <si>
     <t>spaCy</t>
   </si>
   <si>
-    <t>application/, image/</t>
-  </si>
-  <si>
     <t>Natural Language Processing (Grouping / Detecting Verbs etc in text)</t>
   </si>
   <si>
@@ -73,6 +64,21 @@
   </si>
   <si>
     <t>Gensim</t>
+  </si>
+  <si>
+    <t>Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>application/pdf, audio/, image/, video/, text/</t>
+  </si>
+  <si>
+    <t>application/pdf, audio/, image/, text/</t>
+  </si>
+  <si>
+    <t>application/, image/, text/</t>
   </si>
 </sst>
 </file>
@@ -438,17 +444,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45992EDD-76DB-494F-A2A9-1D03CF630710}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -459,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -470,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -481,40 +487,51 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
